--- a/in/analysis/temp/Table_Coupe_Confront_Artificiel.xlsx
+++ b/in/analysis/temp/Table_Coupe_Confront_Artificiel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mferrand/Desktop/Dropbox/MedievalAvignon/Données Margot/Données complètes/Données confront complètes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Dropbox\MedievalAvignon\Données Margot\Données complètes\Données confront complètes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5183527E-4F4C-AA40-9ACA-3B276EBE1A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40337D62-5399-4091-933B-B536ECA06F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7900" windowWidth="28800" windowHeight="10100" xr2:uid="{6F4556E9-558C-394C-A816-FECEEAA895EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6F4556E9-558C-394C-A816-FECEEAA895EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="415">
   <si>
     <t>idInvariant1</t>
   </si>
@@ -1271,6 +1271,12 @@
   </si>
   <si>
     <t>confronte avec</t>
+  </si>
+  <si>
+    <t>71_1</t>
+  </si>
+  <si>
+    <t>71_2</t>
   </si>
 </sst>
 </file>
@@ -1660,20 +1666,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED77160-368C-FE42-A9D0-84E3044188C9}">
-  <dimension ref="A1:C373"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G372" sqref="G372"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1860,3918 +1866,3913 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C32" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C33" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C37" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>65</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>67</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C41" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C42" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C43" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>71</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C44" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>72</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>73</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="C47" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>75</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C48" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C51" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>79</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C52" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>80</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>81</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C54" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>82</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="C55" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>83</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>84</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C57" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>85</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>86</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>87</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C60" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>88</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C61" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>89</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C62" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>90</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="C63" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>91</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="C64" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>92</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="C65" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>93</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C66" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C67" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>95</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="C68" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>96</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="C69" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>97</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="C70" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>98</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C71" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>99</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="C72" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>100</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C73" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>101</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="C74" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>102</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C75" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>103</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C76" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>104</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>105</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="C78" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>106</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="C79" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>107</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="C80" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>108</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="C81" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>109</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="C82" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>110</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="C83" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>111</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="C84" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>112</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="C85" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>114</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="C86" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>115</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="C87" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>116</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="C88" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>117</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="C89" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>118</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="C90" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>119</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="C91" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>120</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="C92" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>121</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="C93" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>122</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="C94" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>123</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="C95" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>124</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="C96" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>125</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>126</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="C97" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>126</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="C98" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>127</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="C99" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>128</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="C100" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>129</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="C101" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>130</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>131</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="C102" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>131</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="C103" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>132</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>133</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="C104" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>133</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>134</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="C105" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>134</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="C106" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>135</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="C107" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>136</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="C108" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>137</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>138</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C109" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>138</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>139</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="C110" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>139</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>140</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="C111" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>140</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>141</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="C112" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>141</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>142</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="C113" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>142</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>143</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="C114" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>143</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>144</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="C115" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>144</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>145</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="C116" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>145</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="C117" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>147</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="C118" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>148</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>149</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="C119" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>149</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="C120" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>150</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="C121" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>151</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="C122" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>152</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>153</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="C123" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>153</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="C124" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>154</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="C125" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>155</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>156</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="C126" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>156</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>157</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="C127" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>157</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="C128" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>158</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>159</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="C129" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>159</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>160</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="C130" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>160</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>161</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="C131" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>161</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>162</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="C132" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>162</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>163</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="C133" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>163</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>164</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="C134" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>164</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>165</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="C135" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>165</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>166</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="C136" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>166</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>167</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="C137" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>167</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>168</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="C138" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>168</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>169</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="C139" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>169</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>170</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="C140" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>170</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>171</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="C141" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>171</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>172</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="C142" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>172</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>173</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="C143" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>174</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>175</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="C144" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>175</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="C145" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>176</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>177</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="C146" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>177</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="C147" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>178</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>179</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="C148" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>179</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>180</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="C149" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>180</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="C150" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>181</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="C151" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>182</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="C152" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>183</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="C153" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>184</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>185</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="C154" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>185</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>186</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="C155" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>186</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>187</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="C156" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>187</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="C157" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>188</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="C158" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>189</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="C159" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>190</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="C160" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>191</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="C161" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>192</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="C162" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>193</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="C163" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>194</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>195</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="C164" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>195</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>196</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="C165" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>196</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>197</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="C166" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>197</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>198</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="C167" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>198</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>199</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="C168" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>199</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>200</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="C169" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>200</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>201</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="C170" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>201</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>202</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="C171" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>202</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>203</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="C172" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>203</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>204</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="C173" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>204</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>205</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="C174" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>205</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="C175" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>206</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>207</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="C176" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>207</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>208</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="C177" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>208</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>209</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="C178" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>209</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>210</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="C179" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>210</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>211</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="C180" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>211</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>212</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="C181" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>212</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>213</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="C182" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>213</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>214</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="C183" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>214</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>215</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="C184" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>215</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>216</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="C185" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>216</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>217</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="C186" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>217</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>218</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="C187" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>218</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>219</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="C188" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>219</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>220</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="C189" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>220</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>221</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="C190" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>221</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>222</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="C191" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>222</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>223</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="C192" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>223</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>224</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="C193" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>224</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>225</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="C194" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>225</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>226</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="C195" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>227</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>228</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="C196" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>228</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>229</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="C197" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>229</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>230</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="C198" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>230</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>231</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="C199" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>231</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>232</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="C200" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>232</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>233</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="C201" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>233</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>234</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="C202" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>234</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>235</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="C203" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>235</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>236</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="C204" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>236</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>237</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="C205" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>237</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>238</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="C206" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>238</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>239</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="C207" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>239</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>240</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="C208" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>240</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>241</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="C209" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>241</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>242</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="C210" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>242</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>243</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="C211" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>243</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>244</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="C212" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>244</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>245</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="C213" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>245</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>246</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="C214" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>246</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>247</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="C215" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>247</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>248</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="C216" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>248</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>249</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="C217" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>249</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>250</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="C218" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>250</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>251</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="C219" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>251</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>252</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="C220" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>252</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>253</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="C221" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>253</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>254</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="C222" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>254</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>255</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="C223" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>255</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>256</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="C224" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>257</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>258</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="C225" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>258</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>259</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="C226" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>259</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>260</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="C227" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>260</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>261</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="C228" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>261</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>262</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="C229" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>262</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>263</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="C230" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>263</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>264</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="C231" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>264</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>265</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="C232" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>265</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>266</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="C233" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>266</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>267</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="C234" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>267</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>268</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="C235" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>268</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>269</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="C236" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>269</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>270</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+      <c r="C237" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>270</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>271</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+      <c r="C238" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>271</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>272</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="C239" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>272</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>273</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="C240" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>273</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>274</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+      <c r="C241" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>274</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>275</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+      <c r="C242" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>275</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>276</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+      <c r="C243" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>276</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>277</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+      <c r="C244" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>277</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>278</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="C245" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>278</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>279</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+      <c r="C246" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>279</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>280</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+      <c r="C247" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>280</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>281</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+      <c r="C248" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>281</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>282</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+      <c r="C249" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>282</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>283</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="C250" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>283</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>284</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="C251" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>284</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>285</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+      <c r="C252" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>285</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>286</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+      <c r="C253" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>286</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>287</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+      <c r="C254" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>287</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>288</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+      <c r="C255" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>289</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>290</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="C256" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>290</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>291</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+      <c r="C257" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>291</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>292</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+      <c r="C258" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>292</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>293</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+      <c r="C259" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>293</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>294</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+      <c r="C260" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>294</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>295</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+      <c r="C261" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>295</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>296</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+      <c r="C262" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>296</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>297</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+      <c r="C263" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>297</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>298</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+      <c r="C264" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>298</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>299</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+      <c r="C265" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>299</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>300</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+      <c r="C266" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>300</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>301</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+      <c r="C267" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>301</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>302</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+      <c r="C268" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>302</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>303</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+      <c r="C269" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>303</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>304</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+      <c r="C270" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>304</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>305</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+      <c r="C271" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>305</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>306</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+      <c r="C272" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>306</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B273" t="s">
         <v>307</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="C273" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>307</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>308</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="C274" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>308</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>309</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="C275" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>309</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B276" t="s">
         <v>310</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+      <c r="C276" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>310</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>311</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+      <c r="C277" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>311</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B278" t="s">
         <v>312</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+      <c r="C278" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>312</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>313</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+      <c r="C279" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>313</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>314</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="C280" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>314</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B281" t="s">
         <v>315</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="C281" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>315</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>316</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+      <c r="C282" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>316</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>317</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+      <c r="C283" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>318</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B284" t="s">
         <v>319</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+      <c r="C284" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>319</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B285" t="s">
         <v>320</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+      <c r="C285" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>320</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>321</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+      <c r="C286" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>321</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>322</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+      <c r="C287" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>322</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>323</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+      <c r="C288" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>323</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>324</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+      <c r="C289" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>324</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>325</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+      <c r="C290" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>325</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>326</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+      <c r="C291" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>326</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>327</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="C292" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>327</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>328</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+      <c r="C293" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>328</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>329</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+      <c r="C294" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>329</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>330</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+      <c r="C295" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>330</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B296" t="s">
         <v>331</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="C296" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>331</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>332</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+      <c r="C297" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>332</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>333</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+      <c r="C298" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>333</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>334</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+      <c r="C299" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>334</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B300" t="s">
         <v>335</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+      <c r="C300" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>335</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>336</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="C301" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>336</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>337</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+      <c r="C302" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>338</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>339</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+      <c r="C303" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>339</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>340</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+      <c r="C304" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>340</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>341</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+      <c r="C305" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>341</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>342</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="C306" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>342</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>343</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+      <c r="C307" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>343</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>344</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+      <c r="C308" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>344</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>345</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+      <c r="C309" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>345</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B310" t="s">
         <v>346</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+      <c r="C310" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>346</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>347</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+      <c r="C311" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>347</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" t="s">
         <v>348</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+      <c r="C312" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>348</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>349</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+      <c r="C313" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>349</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>350</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+      <c r="C314" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>350</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>351</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+      <c r="C315" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>351</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>352</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+      <c r="C316" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>352</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>353</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+      <c r="C317" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>353</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>354</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+      <c r="C318" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>354</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>355</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+      <c r="C319" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>355</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>356</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+      <c r="C320" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>356</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>357</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+      <c r="C321" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>357</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>358</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+      <c r="C322" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>358</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>359</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+      <c r="C323" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>359</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>360</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+      <c r="C324" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>360</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>361</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+      <c r="C325" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>361</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>362</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+      <c r="C326" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>362</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>363</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+      <c r="C327" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>363</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>364</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+      <c r="C328" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>364</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>365</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+      <c r="C329" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>365</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>366</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="C330" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>367</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>368</v>
       </c>
-      <c r="C330" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="C331" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>368</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>369</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="C332" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>369</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>370</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+      <c r="C333" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>370</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>371</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+      <c r="C334" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>371</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>372</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+      <c r="C335" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>372</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>373</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+      <c r="C336" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>374</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>375</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+      <c r="C337" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>375</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>376</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+      <c r="C338" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>376</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>377</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+      <c r="C339" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>377</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>378</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+      <c r="C340" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>378</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>379</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+      <c r="C341" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>379</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>380</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+      <c r="C342" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>380</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B343" t="s">
         <v>381</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+      <c r="C343" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>381</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>382</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+      <c r="C344" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>382</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>383</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+      <c r="C345" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>383</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>384</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+      <c r="C346" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>384</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>385</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+      <c r="C347" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
         <v>385</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B348" t="s">
         <v>386</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+      <c r="C348" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>386</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B349" t="s">
         <v>387</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+      <c r="C349" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>387</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B350" t="s">
         <v>388</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+      <c r="C350" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>388</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B351" t="s">
         <v>389</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+      <c r="C351" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>389</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B352" t="s">
         <v>390</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+      <c r="C352" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>390</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>391</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+      <c r="C353" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>391</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>392</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+      <c r="C354" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>392</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>393</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+      <c r="C355" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>393</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B356" t="s">
         <v>394</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+      <c r="C356" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>394</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>395</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+      <c r="C357" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>395</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B358" t="s">
         <v>396</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+      <c r="C358" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>396</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B359" t="s">
         <v>397</v>
       </c>
-      <c r="C358" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+      <c r="C359" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
         <v>397</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B360" t="s">
         <v>398</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="C360" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>398</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B361" t="s">
         <v>399</v>
       </c>
-      <c r="C360" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+      <c r="C361" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>399</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B362" t="s">
         <v>400</v>
       </c>
-      <c r="C361" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+      <c r="C362" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>400</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B363" t="s">
         <v>401</v>
       </c>
-      <c r="C362" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+      <c r="C363" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>401</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B364" t="s">
         <v>402</v>
       </c>
-      <c r="C363" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+      <c r="C364" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>402</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B365" t="s">
         <v>403</v>
       </c>
-      <c r="C364" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+      <c r="C365" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>403</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>404</v>
       </c>
-      <c r="C365" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+      <c r="C366" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>410</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B367" t="s">
         <v>408</v>
       </c>
-      <c r="C366" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+      <c r="C367" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>408</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B368" t="s">
         <v>405</v>
       </c>
-      <c r="C367" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+      <c r="C368" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>405</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B369" t="s">
         <v>407</v>
       </c>
-      <c r="C368" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+      <c r="C369" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>407</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B370" t="s">
         <v>406</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+      <c r="C370" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>406</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B371" t="s">
         <v>409</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+      <c r="C371" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
         <v>409</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B372" t="s">
         <v>410</v>
       </c>
-      <c r="C371" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>22</v>
-      </c>
-      <c r="B372" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373">
-        <v>79</v>
-      </c>
-      <c r="B373" t="s">
-        <v>51</v>
+      <c r="C372" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A542">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A541">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5788,824 +5789,824 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>488</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>487</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>487</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>487</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>487</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>487</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>666</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>666</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>666</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>666</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>487</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>488</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>488</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>666</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>488</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>488</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>488</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>488</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>488</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>666</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>667</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>667</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>667</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>667</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>667</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>667</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>667</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>667</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>488</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>402</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>402</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>487</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>666</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>402</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>402</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>402</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>487</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>487</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>402</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>666</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>666</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>666</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>666</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>666</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>666</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>666</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>666</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>483</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>666</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>402</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>402</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>666</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>666</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>185</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>195</v>
       </c>

--- a/in/analysis/temp/Table_Coupe_Confront_Artificiel.xlsx
+++ b/in/analysis/temp/Table_Coupe_Confront_Artificiel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Dropbox\MedievalAvignon\Données Margot\Données complètes\Données confront complètes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mferrand/Desktop/Dropbox/MedievalAvignon/Données Margot/Données complètes/Données confront complètes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40337D62-5399-4091-933B-B536ECA06F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328783C1-6061-F349-8BE7-121C1D24B46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6F4556E9-558C-394C-A816-FECEEAA895EF}"/>
+    <workbookView xWindow="8180" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6F4556E9-558C-394C-A816-FECEEAA895EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="442">
   <si>
     <t>idInvariant1</t>
   </si>
@@ -1277,13 +1277,94 @@
   </si>
   <si>
     <t>71_2</t>
+  </si>
+  <si>
+    <t>110_3</t>
+  </si>
+  <si>
+    <t>110_4</t>
+  </si>
+  <si>
+    <t>99_3</t>
+  </si>
+  <si>
+    <t>99_4</t>
+  </si>
+  <si>
+    <t>82_3</t>
+  </si>
+  <si>
+    <t>82_4</t>
+  </si>
+  <si>
+    <t>82_5</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>56_3</t>
+  </si>
+  <si>
+    <t>56_4</t>
+  </si>
+  <si>
+    <t>56_5</t>
+  </si>
+  <si>
+    <t>468_3</t>
+  </si>
+  <si>
+    <t>468_4</t>
+  </si>
+  <si>
+    <t>468_5</t>
+  </si>
+  <si>
+    <t>70_3</t>
+  </si>
+  <si>
+    <t>70_4</t>
+  </si>
+  <si>
+    <t>70_5</t>
+  </si>
+  <si>
+    <t>67_3</t>
+  </si>
+  <si>
+    <t>67_4</t>
+  </si>
+  <si>
+    <t>67_5</t>
+  </si>
+  <si>
+    <t>67_6</t>
+  </si>
+  <si>
+    <t>67_7</t>
+  </si>
+  <si>
+    <t>67_8</t>
+  </si>
+  <si>
+    <t>71_3</t>
+  </si>
+  <si>
+    <t>71_4</t>
+  </si>
+  <si>
+    <t>71_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1666,20 +1747,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED77160-368C-FE42-A9D0-84E3044188C9}">
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A373" sqref="A373:C408"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1771,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1782,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1793,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1815,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1745,7 +1826,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +1837,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1848,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1859,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1870,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1881,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1892,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1903,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1833,7 +1914,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1925,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1936,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1947,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>413</v>
       </c>
@@ -1877,7 +1958,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1969,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1980,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1910,7 +1991,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1921,7 +2002,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +2013,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1943,7 +2024,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +2035,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +2046,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1976,7 +2057,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1987,7 +2068,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +2079,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2009,7 +2090,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2020,7 +2101,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2031,7 +2112,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2042,7 +2123,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2053,7 +2134,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2064,7 +2145,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2075,7 +2156,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2086,7 +2167,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2097,7 +2178,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -2108,7 +2189,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2119,7 +2200,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -2130,7 +2211,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -2141,7 +2222,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2152,7 +2233,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2163,7 +2244,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -2174,7 +2255,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2185,7 +2266,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2196,7 +2277,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2207,7 +2288,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -2218,7 +2299,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2229,7 +2310,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2240,7 +2321,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2251,7 +2332,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2262,7 +2343,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -2273,7 +2354,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2284,7 +2365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -2295,7 +2376,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -2306,7 +2387,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -2317,7 +2398,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -2328,7 +2409,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -2339,7 +2420,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -2350,7 +2431,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -2361,7 +2442,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2372,7 +2453,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -2383,7 +2464,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2394,7 +2475,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -2405,7 +2486,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -2416,7 +2497,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -2427,7 +2508,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -2438,7 +2519,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -2449,7 +2530,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -2460,7 +2541,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -2471,7 +2552,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -2482,7 +2563,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -2493,7 +2574,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -2504,7 +2585,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -2515,7 +2596,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -2526,7 +2607,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -2537,7 +2618,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -2548,7 +2629,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -2559,7 +2640,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -2570,7 +2651,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -2581,7 +2662,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -2592,7 +2673,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -2603,7 +2684,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -2614,7 +2695,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2625,7 +2706,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>115</v>
       </c>
@@ -2636,7 +2717,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -2647,7 +2728,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -2658,7 +2739,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>118</v>
       </c>
@@ -2669,7 +2750,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -2680,7 +2761,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -2691,7 +2772,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -2702,7 +2783,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -2713,7 +2794,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -2724,7 +2805,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -2735,7 +2816,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -2746,7 +2827,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -2757,7 +2838,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -2768,7 +2849,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>128</v>
       </c>
@@ -2779,7 +2860,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>129</v>
       </c>
@@ -2790,7 +2871,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>130</v>
       </c>
@@ -2801,7 +2882,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>131</v>
       </c>
@@ -2812,7 +2893,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -2823,7 +2904,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -2834,7 +2915,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>134</v>
       </c>
@@ -2845,7 +2926,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>135</v>
       </c>
@@ -2856,7 +2937,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -2867,7 +2948,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>137</v>
       </c>
@@ -2878,7 +2959,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -2889,7 +2970,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>139</v>
       </c>
@@ -2900,7 +2981,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>140</v>
       </c>
@@ -2911,7 +2992,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -2922,7 +3003,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>142</v>
       </c>
@@ -2933,7 +3014,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>143</v>
       </c>
@@ -2944,7 +3025,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>144</v>
       </c>
@@ -2955,7 +3036,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>145</v>
       </c>
@@ -2966,7 +3047,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -2977,7 +3058,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>148</v>
       </c>
@@ -2988,7 +3069,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -2999,7 +3080,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>150</v>
       </c>
@@ -3010,7 +3091,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -3021,7 +3102,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -3032,7 +3113,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>153</v>
       </c>
@@ -3043,7 +3124,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>154</v>
       </c>
@@ -3054,7 +3135,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -3065,7 +3146,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -3076,7 +3157,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>157</v>
       </c>
@@ -3087,7 +3168,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>158</v>
       </c>
@@ -3098,7 +3179,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>159</v>
       </c>
@@ -3109,7 +3190,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -3120,7 +3201,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>161</v>
       </c>
@@ -3131,7 +3212,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -3142,7 +3223,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -3153,7 +3234,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -3164,7 +3245,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -3175,7 +3256,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>166</v>
       </c>
@@ -3186,7 +3267,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -3197,7 +3278,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -3208,7 +3289,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>169</v>
       </c>
@@ -3219,7 +3300,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>170</v>
       </c>
@@ -3230,7 +3311,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>171</v>
       </c>
@@ -3241,7 +3322,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -3252,7 +3333,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>174</v>
       </c>
@@ -3263,7 +3344,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>175</v>
       </c>
@@ -3274,7 +3355,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>176</v>
       </c>
@@ -3285,7 +3366,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>177</v>
       </c>
@@ -3296,7 +3377,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>178</v>
       </c>
@@ -3307,7 +3388,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>179</v>
       </c>
@@ -3318,7 +3399,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>180</v>
       </c>
@@ -3329,7 +3410,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>181</v>
       </c>
@@ -3340,7 +3421,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>182</v>
       </c>
@@ -3351,7 +3432,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>183</v>
       </c>
@@ -3362,7 +3443,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -3373,7 +3454,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -3384,7 +3465,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>186</v>
       </c>
@@ -3395,7 +3476,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -3406,7 +3487,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>188</v>
       </c>
@@ -3417,7 +3498,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -3428,7 +3509,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>190</v>
       </c>
@@ -3439,7 +3520,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>191</v>
       </c>
@@ -3450,7 +3531,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>192</v>
       </c>
@@ -3461,7 +3542,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>193</v>
       </c>
@@ -3472,7 +3553,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>194</v>
       </c>
@@ -3483,7 +3564,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>195</v>
       </c>
@@ -3494,7 +3575,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>196</v>
       </c>
@@ -3505,7 +3586,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>197</v>
       </c>
@@ -3516,7 +3597,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>198</v>
       </c>
@@ -3527,7 +3608,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -3538,7 +3619,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -3549,7 +3630,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>201</v>
       </c>
@@ -3560,7 +3641,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>202</v>
       </c>
@@ -3571,7 +3652,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>203</v>
       </c>
@@ -3582,7 +3663,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>204</v>
       </c>
@@ -3593,7 +3674,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>205</v>
       </c>
@@ -3604,7 +3685,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>206</v>
       </c>
@@ -3615,7 +3696,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>207</v>
       </c>
@@ -3626,7 +3707,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>208</v>
       </c>
@@ -3637,7 +3718,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -3648,7 +3729,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>210</v>
       </c>
@@ -3659,7 +3740,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>211</v>
       </c>
@@ -3670,7 +3751,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>212</v>
       </c>
@@ -3681,7 +3762,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>213</v>
       </c>
@@ -3692,7 +3773,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -3703,7 +3784,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>215</v>
       </c>
@@ -3714,7 +3795,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -3725,7 +3806,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>217</v>
       </c>
@@ -3736,7 +3817,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>218</v>
       </c>
@@ -3747,7 +3828,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>219</v>
       </c>
@@ -3758,7 +3839,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -3769,7 +3850,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -3780,7 +3861,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -3791,7 +3872,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>223</v>
       </c>
@@ -3802,7 +3883,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>224</v>
       </c>
@@ -3813,7 +3894,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -3824,7 +3905,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>227</v>
       </c>
@@ -3835,7 +3916,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>228</v>
       </c>
@@ -3846,7 +3927,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>229</v>
       </c>
@@ -3857,7 +3938,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>230</v>
       </c>
@@ -3868,7 +3949,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>231</v>
       </c>
@@ -3879,7 +3960,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>232</v>
       </c>
@@ -3890,7 +3971,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>233</v>
       </c>
@@ -3901,7 +3982,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>234</v>
       </c>
@@ -3912,7 +3993,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>235</v>
       </c>
@@ -3923,7 +4004,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>236</v>
       </c>
@@ -3934,7 +4015,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>237</v>
       </c>
@@ -3945,7 +4026,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>238</v>
       </c>
@@ -3956,7 +4037,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>239</v>
       </c>
@@ -3967,7 +4048,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>240</v>
       </c>
@@ -3978,7 +4059,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>241</v>
       </c>
@@ -3989,7 +4070,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>242</v>
       </c>
@@ -4000,7 +4081,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>243</v>
       </c>
@@ -4011,7 +4092,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>244</v>
       </c>
@@ -4022,7 +4103,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>245</v>
       </c>
@@ -4033,7 +4114,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>246</v>
       </c>
@@ -4044,7 +4125,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>247</v>
       </c>
@@ -4055,7 +4136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>248</v>
       </c>
@@ -4066,7 +4147,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -4077,7 +4158,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>250</v>
       </c>
@@ -4088,7 +4169,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>251</v>
       </c>
@@ -4099,7 +4180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -4110,7 +4191,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -4121,7 +4202,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>254</v>
       </c>
@@ -4132,7 +4213,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>255</v>
       </c>
@@ -4143,7 +4224,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>257</v>
       </c>
@@ -4154,7 +4235,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>258</v>
       </c>
@@ -4165,7 +4246,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>259</v>
       </c>
@@ -4176,7 +4257,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>260</v>
       </c>
@@ -4187,7 +4268,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>261</v>
       </c>
@@ -4198,7 +4279,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>262</v>
       </c>
@@ -4209,7 +4290,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>263</v>
       </c>
@@ -4220,7 +4301,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>264</v>
       </c>
@@ -4231,7 +4312,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>265</v>
       </c>
@@ -4242,7 +4323,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>266</v>
       </c>
@@ -4253,7 +4334,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>267</v>
       </c>
@@ -4264,7 +4345,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>268</v>
       </c>
@@ -4275,7 +4356,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>269</v>
       </c>
@@ -4286,7 +4367,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>270</v>
       </c>
@@ -4297,7 +4378,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>271</v>
       </c>
@@ -4308,7 +4389,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>272</v>
       </c>
@@ -4319,7 +4400,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>273</v>
       </c>
@@ -4330,7 +4411,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4341,7 +4422,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>275</v>
       </c>
@@ -4352,7 +4433,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>276</v>
       </c>
@@ -4363,7 +4444,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>277</v>
       </c>
@@ -4374,7 +4455,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>278</v>
       </c>
@@ -4385,7 +4466,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>279</v>
       </c>
@@ -4396,7 +4477,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>280</v>
       </c>
@@ -4407,7 +4488,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>281</v>
       </c>
@@ -4418,7 +4499,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>282</v>
       </c>
@@ -4429,7 +4510,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>283</v>
       </c>
@@ -4440,7 +4521,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>284</v>
       </c>
@@ -4451,7 +4532,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>285</v>
       </c>
@@ -4462,7 +4543,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>286</v>
       </c>
@@ -4473,7 +4554,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>287</v>
       </c>
@@ -4484,7 +4565,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>289</v>
       </c>
@@ -4495,7 +4576,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>290</v>
       </c>
@@ -4506,7 +4587,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>291</v>
       </c>
@@ -4517,7 +4598,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>292</v>
       </c>
@@ -4528,7 +4609,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -4539,7 +4620,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>294</v>
       </c>
@@ -4550,7 +4631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>295</v>
       </c>
@@ -4561,7 +4642,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -4572,7 +4653,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>297</v>
       </c>
@@ -4583,7 +4664,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>298</v>
       </c>
@@ -4594,7 +4675,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>299</v>
       </c>
@@ -4605,7 +4686,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>300</v>
       </c>
@@ -4616,7 +4697,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>301</v>
       </c>
@@ -4627,7 +4708,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>302</v>
       </c>
@@ -4638,7 +4719,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>303</v>
       </c>
@@ -4649,7 +4730,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>304</v>
       </c>
@@ -4660,7 +4741,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>305</v>
       </c>
@@ -4671,7 +4752,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>306</v>
       </c>
@@ -4682,7 +4763,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>307</v>
       </c>
@@ -4693,7 +4774,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>308</v>
       </c>
@@ -4704,7 +4785,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>309</v>
       </c>
@@ -4715,7 +4796,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>310</v>
       </c>
@@ -4726,7 +4807,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>311</v>
       </c>
@@ -4737,7 +4818,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>312</v>
       </c>
@@ -4748,7 +4829,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>313</v>
       </c>
@@ -4759,7 +4840,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>314</v>
       </c>
@@ -4770,7 +4851,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>315</v>
       </c>
@@ -4781,7 +4862,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>316</v>
       </c>
@@ -4792,7 +4873,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>318</v>
       </c>
@@ -4803,7 +4884,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>319</v>
       </c>
@@ -4814,7 +4895,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>320</v>
       </c>
@@ -4825,7 +4906,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>321</v>
       </c>
@@ -4836,7 +4917,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>322</v>
       </c>
@@ -4847,7 +4928,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>323</v>
       </c>
@@ -4858,7 +4939,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>324</v>
       </c>
@@ -4869,7 +4950,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>325</v>
       </c>
@@ -4880,7 +4961,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>326</v>
       </c>
@@ -4891,7 +4972,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>327</v>
       </c>
@@ -4902,7 +4983,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>328</v>
       </c>
@@ -4913,7 +4994,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>329</v>
       </c>
@@ -4924,7 +5005,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>330</v>
       </c>
@@ -4935,7 +5016,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>331</v>
       </c>
@@ -4946,7 +5027,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>332</v>
       </c>
@@ -4957,7 +5038,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>333</v>
       </c>
@@ -4968,7 +5049,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>334</v>
       </c>
@@ -4979,7 +5060,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>335</v>
       </c>
@@ -4990,7 +5071,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>336</v>
       </c>
@@ -5001,7 +5082,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>338</v>
       </c>
@@ -5012,7 +5093,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>339</v>
       </c>
@@ -5023,7 +5104,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>340</v>
       </c>
@@ -5034,7 +5115,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>341</v>
       </c>
@@ -5045,7 +5126,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>342</v>
       </c>
@@ -5056,7 +5137,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>343</v>
       </c>
@@ -5067,7 +5148,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>344</v>
       </c>
@@ -5078,7 +5159,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>345</v>
       </c>
@@ -5089,7 +5170,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>346</v>
       </c>
@@ -5100,7 +5181,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>347</v>
       </c>
@@ -5111,7 +5192,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>348</v>
       </c>
@@ -5122,7 +5203,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>349</v>
       </c>
@@ -5133,7 +5214,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>350</v>
       </c>
@@ -5144,7 +5225,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>351</v>
       </c>
@@ -5155,7 +5236,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>352</v>
       </c>
@@ -5166,7 +5247,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>353</v>
       </c>
@@ -5177,7 +5258,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>354</v>
       </c>
@@ -5188,7 +5269,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>355</v>
       </c>
@@ -5199,7 +5280,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>356</v>
       </c>
@@ -5210,7 +5291,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>357</v>
       </c>
@@ -5221,7 +5302,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>358</v>
       </c>
@@ -5232,7 +5313,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>359</v>
       </c>
@@ -5243,7 +5324,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>360</v>
       </c>
@@ -5254,7 +5335,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>361</v>
       </c>
@@ -5265,7 +5346,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>362</v>
       </c>
@@ -5276,7 +5357,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>363</v>
       </c>
@@ -5287,7 +5368,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>364</v>
       </c>
@@ -5298,7 +5379,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>365</v>
       </c>
@@ -5309,7 +5390,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>367</v>
       </c>
@@ -5320,7 +5401,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>368</v>
       </c>
@@ -5331,7 +5412,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>369</v>
       </c>
@@ -5342,7 +5423,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>370</v>
       </c>
@@ -5353,7 +5434,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>371</v>
       </c>
@@ -5364,7 +5445,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>372</v>
       </c>
@@ -5375,7 +5456,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>374</v>
       </c>
@@ -5386,7 +5467,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>375</v>
       </c>
@@ -5397,7 +5478,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>376</v>
       </c>
@@ -5408,7 +5489,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>377</v>
       </c>
@@ -5419,7 +5500,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>378</v>
       </c>
@@ -5430,7 +5511,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>379</v>
       </c>
@@ -5441,7 +5522,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>380</v>
       </c>
@@ -5452,7 +5533,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>381</v>
       </c>
@@ -5463,7 +5544,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>382</v>
       </c>
@@ -5474,7 +5555,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>383</v>
       </c>
@@ -5485,7 +5566,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>384</v>
       </c>
@@ -5496,7 +5577,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>385</v>
       </c>
@@ -5507,7 +5588,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>386</v>
       </c>
@@ -5518,7 +5599,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>387</v>
       </c>
@@ -5529,7 +5610,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>388</v>
       </c>
@@ -5540,7 +5621,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>389</v>
       </c>
@@ -5551,7 +5632,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>390</v>
       </c>
@@ -5562,7 +5643,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>391</v>
       </c>
@@ -5573,7 +5654,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>392</v>
       </c>
@@ -5584,7 +5665,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>393</v>
       </c>
@@ -5595,7 +5676,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>394</v>
       </c>
@@ -5606,7 +5687,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>395</v>
       </c>
@@ -5617,7 +5698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>396</v>
       </c>
@@ -5628,7 +5709,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>397</v>
       </c>
@@ -5639,7 +5720,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>398</v>
       </c>
@@ -5650,7 +5731,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>399</v>
       </c>
@@ -5661,7 +5742,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>400</v>
       </c>
@@ -5672,7 +5753,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>401</v>
       </c>
@@ -5683,7 +5764,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>402</v>
       </c>
@@ -5694,7 +5775,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>403</v>
       </c>
@@ -5705,7 +5786,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>410</v>
       </c>
@@ -5716,7 +5797,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>408</v>
       </c>
@@ -5727,7 +5808,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>405</v>
       </c>
@@ -5738,7 +5819,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>407</v>
       </c>
@@ -5749,7 +5830,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>406</v>
       </c>
@@ -5760,7 +5841,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -5768,6 +5849,402 @@
         <v>410</v>
       </c>
       <c r="C372" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+      <c r="B373" t="s">
+        <v>50</v>
+      </c>
+      <c r="C373" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>50</v>
+      </c>
+      <c r="B374" t="s">
+        <v>415</v>
+      </c>
+      <c r="C374" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>415</v>
+      </c>
+      <c r="B375" t="s">
+        <v>416</v>
+      </c>
+      <c r="C375" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>21</v>
+      </c>
+      <c r="B376" t="s">
+        <v>49</v>
+      </c>
+      <c r="C376" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>49</v>
+      </c>
+      <c r="B377" t="s">
+        <v>417</v>
+      </c>
+      <c r="C377" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>417</v>
+      </c>
+      <c r="B378" t="s">
+        <v>418</v>
+      </c>
+      <c r="C378" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379" t="s">
+        <v>47</v>
+      </c>
+      <c r="C379" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+      <c r="B380" t="s">
+        <v>419</v>
+      </c>
+      <c r="C380" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>419</v>
+      </c>
+      <c r="B381" t="s">
+        <v>420</v>
+      </c>
+      <c r="C381" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>420</v>
+      </c>
+      <c r="B382" t="s">
+        <v>421</v>
+      </c>
+      <c r="C382" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384" t="s">
+        <v>422</v>
+      </c>
+      <c r="C384" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>422</v>
+      </c>
+      <c r="B385" t="s">
+        <v>423</v>
+      </c>
+      <c r="C385" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>15</v>
+      </c>
+      <c r="B386" t="s">
+        <v>43</v>
+      </c>
+      <c r="C386" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>43</v>
+      </c>
+      <c r="B387" t="s">
+        <v>424</v>
+      </c>
+      <c r="C387" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>424</v>
+      </c>
+      <c r="B388" t="s">
+        <v>425</v>
+      </c>
+      <c r="C388" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>425</v>
+      </c>
+      <c r="B389" t="s">
+        <v>426</v>
+      </c>
+      <c r="C389" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>25</v>
+      </c>
+      <c r="B390" t="s">
+        <v>53</v>
+      </c>
+      <c r="C390" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>53</v>
+      </c>
+      <c r="B391" t="s">
+        <v>427</v>
+      </c>
+      <c r="C391" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>427</v>
+      </c>
+      <c r="B392" t="s">
+        <v>428</v>
+      </c>
+      <c r="C392" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>428</v>
+      </c>
+      <c r="B393" t="s">
+        <v>429</v>
+      </c>
+      <c r="C393" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>17</v>
+      </c>
+      <c r="B394" t="s">
+        <v>45</v>
+      </c>
+      <c r="C394" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>45</v>
+      </c>
+      <c r="B395" t="s">
+        <v>430</v>
+      </c>
+      <c r="C395" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>430</v>
+      </c>
+      <c r="B396" t="s">
+        <v>431</v>
+      </c>
+      <c r="C396" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>431</v>
+      </c>
+      <c r="B397" t="s">
+        <v>432</v>
+      </c>
+      <c r="C397" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>16</v>
+      </c>
+      <c r="B398" t="s">
+        <v>44</v>
+      </c>
+      <c r="C398" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>44</v>
+      </c>
+      <c r="B399" t="s">
+        <v>433</v>
+      </c>
+      <c r="C399" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>433</v>
+      </c>
+      <c r="B400" t="s">
+        <v>434</v>
+      </c>
+      <c r="C400" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>434</v>
+      </c>
+      <c r="B401" t="s">
+        <v>435</v>
+      </c>
+      <c r="C401" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>435</v>
+      </c>
+      <c r="B402" t="s">
+        <v>436</v>
+      </c>
+      <c r="C402" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>436</v>
+      </c>
+      <c r="B403" t="s">
+        <v>437</v>
+      </c>
+      <c r="C403" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>437</v>
+      </c>
+      <c r="B404" t="s">
+        <v>438</v>
+      </c>
+      <c r="C404" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>413</v>
+      </c>
+      <c r="B405" t="s">
+        <v>414</v>
+      </c>
+      <c r="C405" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>414</v>
+      </c>
+      <c r="B406" t="s">
+        <v>439</v>
+      </c>
+      <c r="C406" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>439</v>
+      </c>
+      <c r="B407" t="s">
+        <v>440</v>
+      </c>
+      <c r="C407" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>440</v>
+      </c>
+      <c r="B408" t="s">
+        <v>441</v>
+      </c>
+      <c r="C408" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5789,824 +6266,824 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>488</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>487</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>487</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>487</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>487</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>487</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>666</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>666</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>666</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>666</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>487</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>488</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>488</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>666</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>488</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>488</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>488</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>488</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>488</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>666</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>667</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>667</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>667</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>667</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>667</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>667</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>667</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>667</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>488</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>402</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>402</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>487</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>666</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>402</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118">
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119">
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123">
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126">
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127">
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128">
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130">
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131">
         <v>402</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132">
         <v>402</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135">
         <v>487</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136">
         <v>487</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137">
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139">
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140">
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141">
         <v>402</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142">
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143">
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144">
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145">
         <v>666</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>666</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147">
         <v>666</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148">
         <v>666</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149">
         <v>666</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150">
         <v>666</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151">
         <v>666</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152">
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153">
         <v>666</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154">
         <v>483</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155">
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156">
         <v>666</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157">
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158">
         <v>402</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159">
         <v>402</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161">
         <v>666</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162">
         <v>666</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163">
         <v>185</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164">
         <v>195</v>
       </c>
